--- a/data/source_database_data/RPI369.xlsx
+++ b/data/source_database_data/RPI369.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_prj\lncRNA_protein_interaction_GNN\data\source_database_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_prj\GNN_predict_rpi\data\source_database_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EA0EA0-385D-40EE-A1A6-21195748AB0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED214DB-FFE7-4BBA-904F-A778449761E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="636" windowWidth="10884" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3232,7 +3232,7 @@
   <dimension ref="A1:C739"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
